--- a/EstimaciónDelphi_diseño_sistema.xlsx
+++ b/EstimaciónDelphi_diseño_sistema.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Complejidad</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>Medio año</t>
+  </si>
+  <si>
+    <t>4 Prototipos</t>
+  </si>
+  <si>
+    <t>8 Prototipos</t>
+  </si>
+  <si>
+    <t>9 o más prototipos</t>
   </si>
 </sst>
 </file>
@@ -759,6 +768,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -766,123 +892,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1199,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1217,140 +1226,140 @@
       <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="64"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="64"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="64"/>
-      <c r="C6" s="54" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="64"/>
-      <c r="C7" s="54" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="64"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="65"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="31"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
     </row>
     <row r="10" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H11" s="1"/>
@@ -1385,10 +1394,10 @@
       <c r="C13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
       <c r="H13" s="28" t="s">
         <v>1</v>
       </c>
@@ -1400,7 +1409,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -1432,7 +1441,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="49"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="7" t="s">
         <v>5</v>
       </c>
@@ -1462,7 +1471,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="50"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="11" t="s">
         <v>4</v>
       </c>
@@ -1493,181 +1502,196 @@
     </row>
     <row r="17" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
     </row>
     <row r="19" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46" t="s">
+      <c r="G19" s="65"/>
+      <c r="H19" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="47"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33" t="s">
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33" t="s">
+      <c r="G20" s="72"/>
+      <c r="H20" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="37"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
+      <c r="B22" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="37"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
       <c r="K23" s="37"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
       <c r="K24" s="37"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
       <c r="K25" s="37"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="37"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
       <c r="K27" s="37"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
       <c r="K28" s="37"/>
     </row>
     <row r="29" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="71"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="73"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="C3:F3"/>
@@ -1684,29 +1708,20 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:K28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/EstimaciónDelphi_diseño_sistema.xlsx
+++ b/EstimaciónDelphi_diseño_sistema.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\AcmeDev\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-1380" yWindow="3915" windowWidth="15195" windowHeight="4170" tabRatio="839"/>
   </bookViews>
   <sheets>
     <sheet name="Estimaciones Delphi" sheetId="20" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -759,6 +764,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -766,123 +888,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -953,7 +958,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -988,7 +993,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1199,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1217,140 +1222,140 @@
       <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="64"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="64"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="64"/>
-      <c r="C6" s="54" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="64"/>
-      <c r="C7" s="54" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="64"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="65"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="31"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
     </row>
     <row r="10" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H11" s="1"/>
@@ -1385,10 +1390,10 @@
       <c r="C13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
       <c r="H13" s="28" t="s">
         <v>1</v>
       </c>
@@ -1400,7 +1405,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -1432,7 +1437,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="49"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="7" t="s">
         <v>5</v>
       </c>
@@ -1462,7 +1467,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="50"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="11" t="s">
         <v>4</v>
       </c>
@@ -1493,181 +1498,190 @@
     </row>
     <row r="17" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
     </row>
     <row r="19" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46" t="s">
+      <c r="G19" s="65"/>
+      <c r="H19" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="47"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33" t="s">
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33" t="s">
+      <c r="G20" s="72"/>
+      <c r="H20" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="37"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="37"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
       <c r="K23" s="37"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
       <c r="K24" s="37"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
       <c r="K25" s="37"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="37"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
       <c r="K27" s="37"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
       <c r="K28" s="37"/>
     </row>
     <row r="29" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="71"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="73"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="C3:F3"/>
@@ -1684,29 +1698,20 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:K28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
